--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223731.5990842963</v>
+        <v>214450.1929906287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24588003.62847155</v>
+        <v>24588438.89496775</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12924287.89518252</v>
+        <v>12926725.43173435</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4420970.110208464</v>
+        <v>4423079.96692205</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>191.3785199081313</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="H11" t="n">
-        <v>161.4836453793824</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380172</v>
+        <v>24.27064211186448</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.74394107424838</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.0333769484666</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.77864152778684</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656611</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.323950383991</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>176.84658102232</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1514,10 +1514,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.99445967921791</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.3856723961843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6621429915595</v>
+        <v>172.1147822340591</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>75.95973356077785</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>280.8902549255548</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.6576127756688</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.19943926506457</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.73667671063</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3574323627404</v>
+        <v>254.3628546400738</v>
       </c>
       <c r="V14" t="n">
-        <v>300.55589282132</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>272.0636254026372</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.0343442571015</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>61.48412768398178</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.1777782877338</v>
+        <v>59.6154085585365</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>80.13945524451302</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.61071067028705</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8352057761754</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5082679425</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92.84813061879902</v>
+        <v>93.76243435608239</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.02633529811892</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>209.067728475463</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.6576127756688</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3574323627404</v>
+        <v>254.3628546400738</v>
       </c>
       <c r="V17" t="n">
-        <v>300.55589282132</v>
+        <v>272.0636254026371</v>
       </c>
       <c r="W17" t="n">
-        <v>300.55589282132</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>289.2704780799292</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>14.02702708546139</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.323950383991</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3190220096304</v>
+        <v>195.321407843628</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -1988,10 +1988,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>23.43277468264433</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8352057761754</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>82.99210766977126</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.1147822340591</v>
       </c>
       <c r="T19" t="n">
-        <v>233.9799766135905</v>
+        <v>234.109880711693</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>102.2982891916668</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>246.531499160793</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.19943926506457</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>168.530191131954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>300.55589282132</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.55589282132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>21.59272131049281</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.0343442571015</v>
+        <v>105.0706089338661</v>
       </c>
       <c r="H21" t="n">
-        <v>61.48412768398178</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>90.45551319598854</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.323950383991</v>
       </c>
       <c r="U21" t="n">
-        <v>154.3774133236711</v>
+        <v>195.321407843628</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8352057761754</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.84813061879902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.02633529811892</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.63111685894991</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.9799766135905</v>
+        <v>22.93518194962774</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9296560854714</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.304368058225</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>264.128218108767</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.6754635109996</v>
+        <v>104.6754635109997</v>
       </c>
       <c r="H24" t="n">
         <v>58.01809521505031</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>100.3903486031076</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>6.710352661917761</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>196.3878933436085</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>58.49506196634226</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>52.76487026272675</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>59.20927508561977</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>72.52346941834168</v>
       </c>
       <c r="T29" t="n">
         <v>209.8004861190321</v>
@@ -2851,16 +2851,16 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>245.4910145093959</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T30" t="n">
-        <v>152.731237034806</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U30" t="n">
         <v>195.2954114342289</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>258.7470128142465</v>
+        <v>228.5264241552045</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>38.05194123875434</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3094,10 +3094,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>72.83691809691678</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>151.9684096442773</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.3096168695706</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3271,16 +3271,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>328.6422157026744</v>
       </c>
       <c r="E35" t="n">
-        <v>96.07395629793909</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>95.15772336924205</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>15.07772888575741</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
         <v>232.6944259398202</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>257.1925144469598</v>
+        <v>57.06833603354207</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G39" t="n">
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>207.0614263973169</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>9.976350241010945</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>307.7806416514666</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>110.194546068012</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505087</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.4380049925145</v>
       </c>
       <c r="I43" t="n">
-        <v>83.77556708756269</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>373.8546965753179</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>11.81490478948882</v>
       </c>
       <c r="G44" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>283.9738944557603</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505087</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>135.064401134267</v>
       </c>
       <c r="C46" t="n">
-        <v>55.85255598777758</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>166.3415337283568</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="C11" t="n">
-        <v>878.2262298963864</v>
+        <v>612.3518044056041</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2262298963864</v>
+        <v>612.3518044056041</v>
       </c>
       <c r="E11" t="n">
-        <v>656.4519294175009</v>
+        <v>612.3518044056041</v>
       </c>
       <c r="F11" t="n">
-        <v>434.6776289386154</v>
+        <v>329.6296014945759</v>
       </c>
       <c r="G11" t="n">
-        <v>212.9033284597299</v>
+        <v>46.90739858354785</v>
       </c>
       <c r="H11" t="n">
-        <v>49.7885351472224</v>
+        <v>46.90739858354785</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422717</v>
+        <v>83.22475261829072</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474255</v>
+        <v>194.9469812069524</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723312</v>
+        <v>348.4934984788853</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543865</v>
+        <v>532.1697063552957</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547436</v>
+        <v>720.6865796961368</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809679</v>
+        <v>893.2969366775147</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598427</v>
+        <v>1026.642977531496</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963864</v>
+        <v>1107.270338509054</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963864</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963864</v>
+        <v>1020.848669917319</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963864</v>
+        <v>805.6634406764438</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>159.9434724196858</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="C12" t="n">
-        <v>159.9434724196858</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="D12" t="n">
-        <v>159.9434724196858</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="E12" t="n">
-        <v>159.9434724196858</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8034304724264</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I12" t="n">
-        <v>22.57805692180552</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J12" t="n">
-        <v>41.2827261916553</v>
+        <v>51.00218031453673</v>
       </c>
       <c r="K12" t="n">
-        <v>258.643718091011</v>
+        <v>143.3410965190051</v>
       </c>
       <c r="L12" t="n">
-        <v>367.1036425275513</v>
+        <v>270.4148327186732</v>
       </c>
       <c r="M12" t="n">
-        <v>496.6659351922978</v>
+        <v>426.5434207925322</v>
       </c>
       <c r="N12" t="n">
-        <v>635.4928574101237</v>
+        <v>592.6397692084709</v>
       </c>
       <c r="O12" t="n">
-        <v>753.4933521432232</v>
+        <v>735.5864613980032</v>
       </c>
       <c r="P12" t="n">
-        <v>840.3692604453881</v>
+        <v>842.4838924545725</v>
       </c>
       <c r="Q12" t="n">
-        <v>878.2262298963864</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R12" t="n">
-        <v>878.2262298963864</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S12" t="n">
-        <v>784.1895570513701</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T12" t="n">
-        <v>784.1895570513701</v>
+        <v>963.6971453620237</v>
       </c>
       <c r="U12" t="n">
-        <v>586.8881676903233</v>
+        <v>785.0642352384681</v>
       </c>
       <c r="V12" t="n">
-        <v>373.176640683357</v>
+        <v>571.3527082315019</v>
       </c>
       <c r="W12" t="n">
-        <v>159.9434724196858</v>
+        <v>358.1195399678306</v>
       </c>
       <c r="X12" t="n">
-        <v>159.9434724196858</v>
+        <v>181.7935581067234</v>
       </c>
       <c r="Y12" t="n">
-        <v>159.9434724196858</v>
+        <v>22.39159847055342</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.0591692750177</v>
+        <v>347.9335394916427</v>
       </c>
       <c r="C13" t="n">
-        <v>177.0591692750177</v>
+        <v>347.9335394916427</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792773</v>
+        <v>347.9335394916427</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792773</v>
+        <v>187.0227243599622</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792773</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J13" t="n">
-        <v>75.28691789969619</v>
+        <v>86.32864297992208</v>
       </c>
       <c r="K13" t="n">
-        <v>237.4389630506622</v>
+        <v>322.8072208540362</v>
       </c>
       <c r="L13" t="n">
-        <v>275.1257584586043</v>
+        <v>373.5626038727657</v>
       </c>
       <c r="M13" t="n">
-        <v>492.48675035796</v>
+        <v>650.6586349458644</v>
       </c>
       <c r="N13" t="n">
-        <v>709.8477422573156</v>
+        <v>707.3711416207399</v>
       </c>
       <c r="O13" t="n">
-        <v>741.5796125688918</v>
+        <v>751.5275197085496</v>
       </c>
       <c r="P13" t="n">
-        <v>761.0116111609714</v>
+        <v>995.0047348715663</v>
       </c>
       <c r="Q13" t="n">
-        <v>878.2262298963864</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R13" t="n">
-        <v>821.2710052537759</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S13" t="n">
-        <v>645.8546992016957</v>
+        <v>945.7266081397327</v>
       </c>
       <c r="T13" t="n">
-        <v>424.0803987228102</v>
+        <v>945.7266081397327</v>
       </c>
       <c r="U13" t="n">
-        <v>202.3060982439247</v>
+        <v>663.0044052287046</v>
       </c>
       <c r="V13" t="n">
-        <v>202.3060982439247</v>
+        <v>663.0044052287046</v>
       </c>
       <c r="W13" t="n">
-        <v>202.3060982439247</v>
+        <v>663.0044052287046</v>
       </c>
       <c r="X13" t="n">
-        <v>202.3060982439247</v>
+        <v>424.660543088388</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.3060982439247</v>
+        <v>347.9335394916427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="C14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="D14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="E14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="F14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H14" t="n">
-        <v>45.9208479667852</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I14" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J14" t="n">
-        <v>90.5727120824036</v>
+        <v>83.22475261829049</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8303990491175</v>
+        <v>194.9469812069522</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9659071958829</v>
+        <v>348.4934984788852</v>
       </c>
       <c r="M14" t="n">
-        <v>570.4244077006565</v>
+        <v>532.1697063552954</v>
       </c>
       <c r="N14" t="n">
-        <v>770.9142234825956</v>
+        <v>720.6865796961365</v>
       </c>
       <c r="O14" t="n">
-        <v>954.8302904984266</v>
+        <v>893.2969366775145</v>
       </c>
       <c r="P14" t="n">
-        <v>1097.825493299968</v>
+        <v>1026.642977531496</v>
       </c>
       <c r="Q14" t="n">
-        <v>1185.698973050933</v>
+        <v>1107.270338509054</v>
       </c>
       <c r="R14" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S14" t="n">
-        <v>1105.052420512487</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T14" t="n">
-        <v>890.166888481548</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="U14" t="n">
-        <v>633.2401891252446</v>
+        <v>862.6477471235562</v>
       </c>
       <c r="V14" t="n">
-        <v>329.6483781946183</v>
+        <v>862.6477471235562</v>
       </c>
       <c r="W14" t="n">
-        <v>329.6483781946183</v>
+        <v>579.9255442125282</v>
       </c>
       <c r="X14" t="n">
-        <v>329.6483781946183</v>
+        <v>297.2033413015001</v>
       </c>
       <c r="Y14" t="n">
-        <v>329.6483781946183</v>
+        <v>22.39159847055342</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>538.5948017396456</v>
+        <v>156.3866697216077</v>
       </c>
       <c r="C15" t="n">
-        <v>538.5948017396456</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="D15" t="n">
-        <v>421.697643959038</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="E15" t="n">
-        <v>301.204827951366</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="F15" t="n">
-        <v>192.2449481338706</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G15" t="n">
-        <v>86.14965090447507</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H15" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I15" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J15" t="n">
-        <v>173.2180125966987</v>
+        <v>288.6435549906318</v>
       </c>
       <c r="K15" t="n">
-        <v>259.568148527371</v>
+        <v>369.1963004020227</v>
       </c>
       <c r="L15" t="n">
-        <v>394.4371917226397</v>
+        <v>496.2700366016908</v>
       </c>
       <c r="M15" t="n">
-        <v>559.6625353794873</v>
+        <v>652.3986246755499</v>
       </c>
       <c r="N15" t="n">
-        <v>735.0964034304551</v>
+        <v>818.4949730914884</v>
       </c>
       <c r="O15" t="n">
-        <v>1032.646737323562</v>
+        <v>961.4416652810207</v>
       </c>
       <c r="P15" t="n">
-        <v>1146.399881459102</v>
+        <v>1068.33909633759</v>
       </c>
       <c r="Q15" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R15" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S15" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T15" t="n">
-        <v>1046.48844170171</v>
+        <v>1059.362339125109</v>
       </c>
       <c r="U15" t="n">
-        <v>1046.48844170171</v>
+        <v>1059.362339125109</v>
       </c>
       <c r="V15" t="n">
-        <v>832.7769146947442</v>
+        <v>845.6508121181429</v>
       </c>
       <c r="W15" t="n">
-        <v>619.5437464310729</v>
+        <v>632.4176438544716</v>
       </c>
       <c r="X15" t="n">
-        <v>538.5948017396456</v>
+        <v>456.0916619933644</v>
       </c>
       <c r="Y15" t="n">
-        <v>538.5948017396456</v>
+        <v>296.6897023571944</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.398272327294</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="C16" t="n">
-        <v>912.3048998890106</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="D16" t="n">
-        <v>752.8102552119205</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="E16" t="n">
-        <v>591.8994400802401</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="F16" t="n">
-        <v>427.2683141908313</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="G16" t="n">
-        <v>260.7681063361086</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="H16" t="n">
-        <v>117.830461949745</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="I16" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J16" t="n">
-        <v>25.1081555574272</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="K16" t="n">
-        <v>265.083696474122</v>
+        <v>258.8701763446676</v>
       </c>
       <c r="L16" t="n">
-        <v>397.9129311280857</v>
+        <v>309.6255593633971</v>
       </c>
       <c r="M16" t="n">
-        <v>695.4632650211925</v>
+        <v>586.7215904364957</v>
       </c>
       <c r="N16" t="n">
-        <v>993.0135989142992</v>
+        <v>863.8176215095943</v>
       </c>
       <c r="O16" t="n">
-        <v>1041.424341742801</v>
+        <v>907.973999597404</v>
       </c>
       <c r="P16" t="n">
-        <v>1075.127997137374</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="Q16" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R16" t="n">
-        <v>1150.681818458897</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S16" t="n">
-        <v>1150.681818458897</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T16" t="n">
-        <v>1150.681818458897</v>
+        <v>908.4003998150822</v>
       </c>
       <c r="U16" t="n">
-        <v>1150.681818458897</v>
+        <v>908.4003998150822</v>
       </c>
       <c r="V16" t="n">
-        <v>1150.681818458897</v>
+        <v>634.5146547546042</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.681818458897</v>
+        <v>355.4449902634785</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.681818458897</v>
+        <v>117.1011281231619</v>
       </c>
       <c r="Y16" t="n">
-        <v>1150.681818458897</v>
+        <v>117.1011281231619</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="C17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="D17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="E17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="F17" t="n">
-        <v>45.92084796678519</v>
+        <v>305.1138013815815</v>
       </c>
       <c r="G17" t="n">
-        <v>45.92084796678519</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H17" t="n">
-        <v>45.92084796678519</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I17" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J17" t="n">
-        <v>90.57271208240367</v>
+        <v>83.22475261829071</v>
       </c>
       <c r="K17" t="n">
-        <v>210.8303990491176</v>
+        <v>194.9469812069524</v>
       </c>
       <c r="L17" t="n">
-        <v>374.965907195883</v>
+        <v>348.4934984788853</v>
       </c>
       <c r="M17" t="n">
-        <v>570.4244077006566</v>
+        <v>532.1697063552956</v>
       </c>
       <c r="N17" t="n">
-        <v>770.9142234825955</v>
+        <v>720.6865796961367</v>
       </c>
       <c r="O17" t="n">
-        <v>954.8302904984265</v>
+        <v>893.2969366775147</v>
       </c>
       <c r="P17" t="n">
-        <v>1097.825493299968</v>
+        <v>1026.642977531496</v>
       </c>
       <c r="Q17" t="n">
-        <v>1185.698973050933</v>
+        <v>1107.270338509054</v>
       </c>
       <c r="R17" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S17" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T17" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="U17" t="n">
-        <v>945.2968719289763</v>
+        <v>862.6477471235562</v>
       </c>
       <c r="V17" t="n">
-        <v>641.7050609983501</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="W17" t="n">
-        <v>338.1132500677238</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="X17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
       <c r="Y17" t="n">
-        <v>45.92084796678519</v>
+        <v>587.8360042926097</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>401.6609527296661</v>
+        <v>156.3866697216077</v>
       </c>
       <c r="C18" t="n">
-        <v>267.6658814786118</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="D18" t="n">
-        <v>253.497167250873</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="E18" t="n">
-        <v>133.004351243201</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="F18" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G18" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H18" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I18" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J18" t="n">
-        <v>299.7154117538107</v>
+        <v>288.6435549906315</v>
       </c>
       <c r="K18" t="n">
-        <v>386.0655476844831</v>
+        <v>369.1963004020225</v>
       </c>
       <c r="L18" t="n">
-        <v>520.9345908797518</v>
+        <v>496.2700366016905</v>
       </c>
       <c r="M18" t="n">
-        <v>705.7241708495429</v>
+        <v>652.3986246755496</v>
       </c>
       <c r="N18" t="n">
-        <v>881.1580389005107</v>
+        <v>818.4949730914883</v>
       </c>
       <c r="O18" t="n">
-        <v>1032.646737323562</v>
+        <v>961.4416652810207</v>
       </c>
       <c r="P18" t="n">
-        <v>1146.399881459102</v>
+        <v>1068.33909633759</v>
       </c>
       <c r="Q18" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R18" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S18" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="T18" t="n">
-        <v>1202.22357128528</v>
+        <v>963.6971453620237</v>
       </c>
       <c r="U18" t="n">
-        <v>1004.931629861411</v>
+        <v>766.4027940048236</v>
       </c>
       <c r="V18" t="n">
-        <v>791.2201028544446</v>
+        <v>552.6912669978574</v>
       </c>
       <c r="W18" t="n">
-        <v>577.9869345907733</v>
+        <v>339.4580987341861</v>
       </c>
       <c r="X18" t="n">
-        <v>401.6609527296661</v>
+        <v>315.7886293577777</v>
       </c>
       <c r="Y18" t="n">
-        <v>401.6609527296661</v>
+        <v>156.3866697216077</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>274.375091068076</v>
+        <v>193.4849709088369</v>
       </c>
       <c r="C19" t="n">
-        <v>274.375091068076</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="D19" t="n">
-        <v>274.375091068076</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="E19" t="n">
-        <v>274.375091068076</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="F19" t="n">
-        <v>274.375091068076</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="G19" t="n">
-        <v>107.8748832133533</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="H19" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="I19" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055342</v>
       </c>
       <c r="J19" t="n">
-        <v>90.10951918876358</v>
+        <v>86.32864297992208</v>
       </c>
       <c r="K19" t="n">
-        <v>330.0850601054584</v>
+        <v>116.5270272683221</v>
       </c>
       <c r="L19" t="n">
-        <v>385.3153518564542</v>
+        <v>167.2824102870516</v>
       </c>
       <c r="M19" t="n">
-        <v>682.865685749561</v>
+        <v>444.3784413601502</v>
       </c>
       <c r="N19" t="n">
-        <v>980.4160196426677</v>
+        <v>721.4744724332488</v>
       </c>
       <c r="O19" t="n">
-        <v>1028.826762471169</v>
+        <v>765.6308505210585</v>
       </c>
       <c r="P19" t="n">
-        <v>1075.127997137374</v>
+        <v>995.0047348715663</v>
       </c>
       <c r="Q19" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527671</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.22357128528</v>
+        <v>945.7266081397327</v>
       </c>
       <c r="T19" t="n">
-        <v>965.8801605644813</v>
+        <v>709.2519811582246</v>
       </c>
       <c r="U19" t="n">
-        <v>965.8801605644813</v>
+        <v>709.2519811582246</v>
       </c>
       <c r="V19" t="n">
-        <v>965.8801605644813</v>
+        <v>709.2519811582246</v>
       </c>
       <c r="W19" t="n">
-        <v>686.8104960733557</v>
+        <v>605.9203759141167</v>
       </c>
       <c r="X19" t="n">
-        <v>686.8104960733557</v>
+        <v>605.9203759141167</v>
       </c>
       <c r="Y19" t="n">
-        <v>462.0747974621204</v>
+        <v>381.1846773028813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.0444714257056</v>
+        <v>836.8577206166433</v>
       </c>
       <c r="C20" t="n">
-        <v>24.0444714257056</v>
+        <v>587.8360042926099</v>
       </c>
       <c r="D20" t="n">
-        <v>24.0444714257056</v>
+        <v>587.8360042926099</v>
       </c>
       <c r="E20" t="n">
-        <v>24.0444714257056</v>
+        <v>305.1138013815817</v>
       </c>
       <c r="F20" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="G20" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="H20" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="I20" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="J20" t="n">
-        <v>90.57271208240377</v>
+        <v>83.22475261829072</v>
       </c>
       <c r="K20" t="n">
-        <v>210.8303990491177</v>
+        <v>194.9469812069524</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9659071958833</v>
+        <v>348.4934984788855</v>
       </c>
       <c r="M20" t="n">
-        <v>570.4244077006567</v>
+        <v>532.1697063552958</v>
       </c>
       <c r="N20" t="n">
-        <v>770.9142234825958</v>
+        <v>720.686579696137</v>
       </c>
       <c r="O20" t="n">
-        <v>954.8302904984267</v>
+        <v>893.296936677515</v>
       </c>
       <c r="P20" t="n">
-        <v>1097.825493299968</v>
+        <v>1026.642977531497</v>
       </c>
       <c r="Q20" t="n">
-        <v>1185.698973050934</v>
+        <v>1107.270338509054</v>
       </c>
       <c r="R20" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="S20" t="n">
-        <v>1105.052420512487</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="T20" t="n">
-        <v>1105.052420512487</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="U20" t="n">
-        <v>1105.052420512487</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="V20" t="n">
-        <v>1105.052420512487</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="W20" t="n">
-        <v>934.8199042175843</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="X20" t="n">
-        <v>631.228093286958</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="Y20" t="n">
-        <v>327.6362823563318</v>
+        <v>1119.579923527672</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>192.2449481338706</v>
+        <v>371.4784777551295</v>
       </c>
       <c r="C21" t="n">
-        <v>192.2449481338706</v>
+        <v>237.4834065040752</v>
       </c>
       <c r="D21" t="n">
-        <v>192.2449481338706</v>
+        <v>237.4834065040752</v>
       </c>
       <c r="E21" t="n">
-        <v>192.2449481338706</v>
+        <v>237.4834065040752</v>
       </c>
       <c r="F21" t="n">
-        <v>192.2449481338706</v>
+        <v>128.5235266865798</v>
       </c>
       <c r="G21" t="n">
-        <v>86.14965090447507</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="H21" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="I21" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="J21" t="n">
-        <v>235.2686631441218</v>
+        <v>206.8616452286846</v>
       </c>
       <c r="K21" t="n">
-        <v>321.6187990747941</v>
+        <v>287.4143906400755</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4878422700627</v>
+        <v>414.4881268397436</v>
       </c>
       <c r="M21" t="n">
-        <v>621.7131859269102</v>
+        <v>570.6167149136027</v>
       </c>
       <c r="N21" t="n">
-        <v>797.147053977878</v>
+        <v>736.7130633295413</v>
       </c>
       <c r="O21" t="n">
-        <v>948.6357524009292</v>
+        <v>879.6597555190738</v>
       </c>
       <c r="P21" t="n">
-        <v>1062.388896536469</v>
+        <v>986.5571865756431</v>
       </c>
       <c r="Q21" t="n">
-        <v>1118.212586362647</v>
+        <v>1037.798013765724</v>
       </c>
       <c r="R21" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="S21" t="n">
-        <v>1110.854366036807</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="T21" t="n">
-        <v>1110.854366036807</v>
+        <v>963.6971453620241</v>
       </c>
       <c r="U21" t="n">
-        <v>954.9175849017853</v>
+        <v>766.402794004824</v>
       </c>
       <c r="V21" t="n">
-        <v>741.2060578948191</v>
+        <v>552.6912669978578</v>
       </c>
       <c r="W21" t="n">
-        <v>527.9728896311478</v>
+        <v>552.6912669978578</v>
       </c>
       <c r="X21" t="n">
-        <v>351.6469077700406</v>
+        <v>552.6912669978578</v>
       </c>
       <c r="Y21" t="n">
-        <v>192.2449481338706</v>
+        <v>393.2893073616879</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="C22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="D22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="E22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="F22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="G22" t="n">
-        <v>117.830461949745</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="H22" t="n">
-        <v>117.830461949745</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="I22" t="n">
-        <v>24.0444714257056</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="J22" t="n">
-        <v>90.10951918876358</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="K22" t="n">
-        <v>219.817008518322</v>
+        <v>52.58998275895345</v>
       </c>
       <c r="L22" t="n">
-        <v>275.0473002693178</v>
+        <v>258.2285189136841</v>
       </c>
       <c r="M22" t="n">
-        <v>572.5976341624246</v>
+        <v>535.3245499867828</v>
       </c>
       <c r="N22" t="n">
-        <v>870.1479680555314</v>
+        <v>812.4205810598814</v>
       </c>
       <c r="O22" t="n">
-        <v>1167.698301948638</v>
+        <v>1089.51661213298</v>
       </c>
       <c r="P22" t="n">
-        <v>1201.401957343212</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="Q22" t="n">
-        <v>1202.22357128528</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="R22" t="n">
-        <v>1150.681818458897</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="S22" t="n">
-        <v>1077.317053954907</v>
+        <v>1119.579923527672</v>
       </c>
       <c r="T22" t="n">
-        <v>840.973643234109</v>
+        <v>1096.413073073502</v>
       </c>
       <c r="U22" t="n">
-        <v>558.2164148649458</v>
+        <v>813.6908701624739</v>
       </c>
       <c r="V22" t="n">
-        <v>284.3306698044677</v>
+        <v>539.8051251019957</v>
       </c>
       <c r="W22" t="n">
-        <v>284.3306698044677</v>
+        <v>260.7354606108701</v>
       </c>
       <c r="X22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.3306698044677</v>
+        <v>22.39159847055343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>861.2050105272881</v>
+        <v>1675.793531120958</v>
       </c>
       <c r="C23" t="n">
-        <v>861.2050105272881</v>
+        <v>1265.668940434228</v>
       </c>
       <c r="D23" t="n">
         <v>861.2050105272881</v>
@@ -5986,7 +5986,7 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J23" t="n">
         <v>167.5334271492899</v>
@@ -5998,7 +5998,7 @@
         <v>641.1850750879078</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
@@ -6025,16 +6025,16 @@
         <v>1942.589711028803</v>
       </c>
       <c r="V23" t="n">
-        <v>1592.752156365284</v>
+        <v>1675.793531120958</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.752156365284</v>
+        <v>1675.793531120958</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.752156365284</v>
+        <v>1675.793531120958</v>
       </c>
       <c r="Y23" t="n">
-        <v>1191.815483313374</v>
+        <v>1675.793531120958</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
         <v>99.09057352692763</v>
@@ -6068,25 +6068,25 @@
         <v>62.57863487475247</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711963</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L24" t="n">
-        <v>564.4940477866402</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M24" t="n">
-        <v>819.7422655456082</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N24" t="n">
-        <v>1087.581645304758</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1323.603334058737</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P24" t="n">
-        <v>1505.20165549492</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q24" t="n">
         <v>2006.22131270252</v>
@@ -6095,25 +6095,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.694781664777</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="C25" t="n">
-        <v>916.6014092264938</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="D25" t="n">
-        <v>757.1067645494038</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="E25" t="n">
-        <v>596.1959494177233</v>
+        <v>141.8908294744602</v>
       </c>
       <c r="F25" t="n">
-        <v>431.5648235283147</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H25" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I25" t="n">
         <v>40.48643694606873</v>
@@ -6150,22 +6150,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>195.9123523564644</v>
+        <v>219.6034981877564</v>
       </c>
       <c r="L25" t="n">
-        <v>609.4061314311004</v>
+        <v>633.0972772623925</v>
       </c>
       <c r="M25" t="n">
-        <v>1060.616349816981</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N25" t="n">
-        <v>1499.550576393027</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O25" t="n">
-        <v>1905.137917910529</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P25" t="n">
-        <v>1974.866970118296</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
@@ -6177,22 +6177,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.321847303436</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U25" t="n">
-        <v>2024.321847303436</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V25" t="n">
-        <v>2017.543713301499</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W25" t="n">
-        <v>1738.474048810373</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X25" t="n">
-        <v>1500.130186670057</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.394488058822</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1569.077740205682</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="C26" t="n">
-        <v>1569.077740205682</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D26" t="n">
-        <v>1569.077740205682</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E26" t="n">
-        <v>1154.737524722578</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H26" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I26" t="n">
         <v>44.64574590746555</v>
@@ -6229,7 +6229,7 @@
         <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L26" t="n">
         <v>641.1850750879078</v>
@@ -6241,37 +6241,37 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P26" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R26" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T26" t="n">
-        <v>1825.950237865447</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U26" t="n">
-        <v>1569.077740205682</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V26" t="n">
-        <v>1569.077740205682</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W26" t="n">
-        <v>1569.077740205682</v>
+        <v>1276.793737527395</v>
       </c>
       <c r="X26" t="n">
-        <v>1569.077740205682</v>
+        <v>1276.793737527395</v>
       </c>
       <c r="Y26" t="n">
-        <v>1569.077740205682</v>
+        <v>875.8570644754845</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H27" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J27" t="n">
-        <v>352.2490680648406</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>707.9836451177895</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>963.2318628767575</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V27" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W27" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>820.5871706062359</v>
+        <v>264.9249114068106</v>
       </c>
       <c r="C28" t="n">
-        <v>649.4937981679524</v>
+        <v>264.9249114068106</v>
       </c>
       <c r="D28" t="n">
-        <v>596.1959494177233</v>
+        <v>264.9249114068106</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1959494177233</v>
+        <v>264.9249114068106</v>
       </c>
       <c r="F28" t="n">
-        <v>431.5648235283147</v>
+        <v>100.2937855174018</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I28" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909251</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L28" t="n">
-        <v>544.404767799764</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M28" t="n">
-        <v>995.6149861856446</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N28" t="n">
-        <v>1434.549212761691</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O28" t="n">
-        <v>1840.136554279192</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P28" t="n">
-        <v>1998.558115949587</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S28" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.321847303436</v>
+        <v>1751.400239417419</v>
       </c>
       <c r="U28" t="n">
-        <v>2024.321847303436</v>
+        <v>1468.65958810401</v>
       </c>
       <c r="V28" t="n">
-        <v>1750.436102242958</v>
+        <v>1194.773843043532</v>
       </c>
       <c r="W28" t="n">
-        <v>1471.366437751832</v>
+        <v>915.7041785524068</v>
       </c>
       <c r="X28" t="n">
-        <v>1233.022575611516</v>
+        <v>677.3603164120902</v>
       </c>
       <c r="Y28" t="n">
-        <v>1008.28687700028</v>
+        <v>452.6246178008549</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.48643694606873</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="C29" t="n">
-        <v>40.48643694606873</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="D29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q29" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>1942.589711028803</v>
+        <v>1951.065817587939</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.670028080286</v>
+        <v>1739.146134639422</v>
       </c>
       <c r="U29" t="n">
-        <v>1473.79753042052</v>
+        <v>1482.273636979656</v>
       </c>
       <c r="V29" t="n">
-        <v>1225.826808693858</v>
+        <v>1132.436082316137</v>
       </c>
       <c r="W29" t="n">
-        <v>842.0665078290261</v>
+        <v>1132.436082316137</v>
       </c>
       <c r="X29" t="n">
-        <v>441.4231099979787</v>
+        <v>731.7926844850894</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.48643694606873</v>
+        <v>731.7926844850894</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H30" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648407</v>
+        <v>208.7594707336909</v>
       </c>
       <c r="K30" t="n">
-        <v>752.324726338493</v>
+        <v>352.4814632649824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.3373108601503</v>
+        <v>564.4940477866397</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.585528619118</v>
+        <v>819.7422655456078</v>
       </c>
       <c r="N30" t="n">
-        <v>1487.424908378268</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O30" t="n">
-        <v>1723.446597132247</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q30" t="n">
         <v>2006.22131270252</v>
@@ -6569,7 +6569,7 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S30" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T30" t="n">
         <v>1785.412051570317</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>947.4591973664158</v>
+        <v>542.4072304396491</v>
       </c>
       <c r="C31" t="n">
-        <v>776.3658249281323</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="D31" t="n">
-        <v>616.8711802510422</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="E31" t="n">
-        <v>455.9603651193617</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F31" t="n">
-        <v>291.3292392299529</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I31" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J31" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>337.1911823108422</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L31" t="n">
-        <v>750.6849613854782</v>
+        <v>609.4061314311004</v>
       </c>
       <c r="M31" t="n">
-        <v>856.9288302570733</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N31" t="n">
-        <v>1136.070278545364</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O31" t="n">
-        <v>1541.657620062866</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P31" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
@@ -6648,25 +6648,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.300096062672</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>1621.255221375985</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U31" t="n">
-        <v>1359.894602371695</v>
+        <v>1558.442200742805</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.894602371695</v>
+        <v>1284.556455682327</v>
       </c>
       <c r="W31" t="n">
-        <v>1359.894602371695</v>
+        <v>1005.486791191201</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.894602371695</v>
+        <v>767.1429290508844</v>
       </c>
       <c r="Y31" t="n">
-        <v>1135.15890376046</v>
+        <v>542.4072304396491</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.92274122763877</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="C32" t="n">
-        <v>78.92274122763877</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="D32" t="n">
-        <v>78.92274122763877</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="E32" t="n">
-        <v>78.92274122763877</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
         <v>1806.502667397418</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.484292639917</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W32" t="n">
-        <v>1290.723991775086</v>
+        <v>821.9318111668026</v>
       </c>
       <c r="X32" t="n">
-        <v>890.0805939440381</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="Y32" t="n">
-        <v>489.1439208921282</v>
+        <v>748.3591666244624</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>43.01083102505507</v>
       </c>
       <c r="J33" t="n">
-        <v>108.5806640902074</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K33" t="n">
-        <v>252.3026566214989</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L33" t="n">
-        <v>464.3152411431562</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M33" t="n">
-        <v>819.7422655456078</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N33" t="n">
-        <v>1087.581645304757</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O33" t="n">
-        <v>1323.603334058737</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P33" t="n">
-        <v>1505.20165549492</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>773.8555311539757</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="C34" t="n">
-        <v>602.7621587156922</v>
+        <v>131.7082721678572</v>
       </c>
       <c r="D34" t="n">
-        <v>443.2675140386022</v>
+        <v>131.7082721678572</v>
       </c>
       <c r="E34" t="n">
-        <v>289.7640699534736</v>
+        <v>131.7082721678572</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1329440640648</v>
+        <v>131.7082721678572</v>
       </c>
       <c r="G34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J34" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>337.1911823108422</v>
+        <v>219.6034981877564</v>
       </c>
       <c r="L34" t="n">
         <v>633.0972772623925</v>
@@ -6882,28 +6882,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T34" t="n">
-        <v>1986.445114104106</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U34" t="n">
-        <v>1703.704462790698</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V34" t="n">
-        <v>1703.704462790698</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W34" t="n">
-        <v>1424.634798299572</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.290936159255</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y34" t="n">
-        <v>961.55523754802</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>952.1193578406867</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="C35" t="n">
-        <v>541.9947671539568</v>
+        <v>1614.197256616706</v>
       </c>
       <c r="D35" t="n">
-        <v>137.5308372470173</v>
+        <v>1282.235422573601</v>
       </c>
       <c r="E35" t="n">
-        <v>40.48643694606873</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F35" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G35" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492901</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L35" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U35" t="n">
-        <v>1685.717213369037</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V35" t="n">
-        <v>1335.879658705518</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W35" t="n">
-        <v>952.1193578406867</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X35" t="n">
-        <v>952.1193578406867</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y35" t="n">
-        <v>952.1193578406867</v>
+        <v>2024.321847303436</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H36" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J36" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>752.324726338493</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L36" t="n">
-        <v>964.3373108601503</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.585528619118</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N36" t="n">
-        <v>1487.424908378268</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q36" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R36" t="n">
         <v>2024.321847303436</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>302.8016446061407</v>
+        <v>531.9852691931227</v>
       </c>
       <c r="C37" t="n">
-        <v>206.6827321119568</v>
+        <v>360.8918967548392</v>
       </c>
       <c r="D37" t="n">
-        <v>206.6827321119568</v>
+        <v>201.3972520777492</v>
       </c>
       <c r="E37" t="n">
-        <v>206.6827321119568</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F37" t="n">
-        <v>206.6827321119568</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H37" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I37" t="n">
-        <v>40.48643694606873</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J37" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>303.672364228924</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>717.16614330356</v>
+        <v>501.7072137817916</v>
       </c>
       <c r="M37" t="n">
-        <v>823.4100121751551</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N37" t="n">
-        <v>1262.344238751201</v>
+        <v>1391.851658743718</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.931580268703</v>
+        <v>1797.43900026122</v>
       </c>
       <c r="P37" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>2024.321847303436</v>
+        <v>2009.091818125903</v>
       </c>
       <c r="S37" t="n">
-        <v>2024.321847303436</v>
+        <v>1841.070066885139</v>
       </c>
       <c r="T37" t="n">
-        <v>1789.276972616749</v>
+        <v>1606.025192198452</v>
       </c>
       <c r="U37" t="n">
-        <v>1506.536321303341</v>
+        <v>1323.284540885043</v>
       </c>
       <c r="V37" t="n">
-        <v>1232.650576242863</v>
+        <v>1049.398795824565</v>
       </c>
       <c r="W37" t="n">
-        <v>953.5809117517369</v>
+        <v>770.3291313334394</v>
       </c>
       <c r="X37" t="n">
-        <v>715.2370496114204</v>
+        <v>531.9852691931227</v>
       </c>
       <c r="Y37" t="n">
-        <v>490.5013510001851</v>
+        <v>531.9852691931227</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1131.431858312404</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="C38" t="n">
-        <v>721.3072676256739</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="D38" t="n">
-        <v>461.5168489923812</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923812</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H38" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
-        <v>44.6457459074652</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492893</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752959</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7201,25 +7201,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T38" t="n">
-        <v>1942.589711028803</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U38" t="n">
-        <v>1942.589711028803</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V38" t="n">
-        <v>1942.589711028803</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W38" t="n">
-        <v>1942.589711028803</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="X38" t="n">
-        <v>1942.589711028803</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="Y38" t="n">
-        <v>1541.653037976893</v>
+        <v>1205.692112031634</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>313.7832447696753</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606873</v>
@@ -7253,25 +7253,25 @@
         <v>43.01083102505507</v>
       </c>
       <c r="J39" t="n">
-        <v>352.2490680648407</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K39" t="n">
-        <v>495.9710605961322</v>
+        <v>609.6003212978078</v>
       </c>
       <c r="L39" t="n">
-        <v>707.9836451177896</v>
+        <v>821.6129058194651</v>
       </c>
       <c r="M39" t="n">
-        <v>963.2318628767576</v>
+        <v>1076.861123578433</v>
       </c>
       <c r="N39" t="n">
-        <v>1231.071242635907</v>
+        <v>1344.700503337583</v>
       </c>
       <c r="O39" t="n">
-        <v>1467.092931389886</v>
+        <v>1580.722192091562</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.691252826069</v>
+        <v>1762.320513527745</v>
       </c>
       <c r="Q39" t="n">
         <v>2006.22131270252</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.694781664777</v>
+        <v>703.3180455713295</v>
       </c>
       <c r="C40" t="n">
-        <v>916.6014092264938</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="D40" t="n">
-        <v>757.1067645494038</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E40" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606873</v>
@@ -7338,13 +7338,13 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>501.7072137817916</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M40" t="n">
-        <v>952.9174321676721</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N40" t="n">
-        <v>1391.851658743718</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O40" t="n">
         <v>1541.657620062866</v>
@@ -7359,25 +7359,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T40" t="n">
-        <v>1789.276972616749</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U40" t="n">
-        <v>1789.276972616749</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.276972616749</v>
+        <v>1129.36161410569</v>
       </c>
       <c r="W40" t="n">
-        <v>1510.207308125624</v>
+        <v>1129.36161410569</v>
       </c>
       <c r="X40" t="n">
-        <v>1500.130186670057</v>
+        <v>891.0177519653739</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.394488058822</v>
+        <v>891.0177519653739</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461.5168489923812</v>
+        <v>1182.530976700795</v>
       </c>
       <c r="C41" t="n">
-        <v>461.5168489923812</v>
+        <v>772.4063860140647</v>
       </c>
       <c r="D41" t="n">
-        <v>461.5168489923812</v>
+        <v>772.4063860140647</v>
       </c>
       <c r="E41" t="n">
         <v>461.5168489923812</v>
@@ -7408,28 +7408,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752961</v>
+        <v>372.2593058752966</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N41" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397418</v>
+        <v>1806.502667397419</v>
       </c>
       <c r="Q41" t="n">
         <v>1966.084838463273</v>
@@ -7438,25 +7438,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>1913.014225012515</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U41" t="n">
-        <v>1656.14172735275</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V41" t="n">
-        <v>1656.14172735275</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="W41" t="n">
-        <v>1272.381426487918</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="X41" t="n">
-        <v>871.7380286568707</v>
+        <v>1592.752156365284</v>
       </c>
       <c r="Y41" t="n">
-        <v>871.7380286568707</v>
+        <v>1592.752156365284</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579554</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773475</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696755</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521801</v>
       </c>
       <c r="G42" t="n">
-        <v>99.0905735269282</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606873</v>
@@ -7490,25 +7490,25 @@
         <v>62.57863487475247</v>
       </c>
       <c r="J42" t="n">
-        <v>371.8168719145381</v>
+        <v>128.1484679399048</v>
       </c>
       <c r="K42" t="n">
-        <v>664.355009861512</v>
+        <v>271.8704604711963</v>
       </c>
       <c r="L42" t="n">
-        <v>876.3675943831694</v>
+        <v>483.8830449928536</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.615812142137</v>
+        <v>739.1312627518217</v>
       </c>
       <c r="N42" t="n">
-        <v>1399.455191901287</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O42" t="n">
-        <v>1635.476880655266</v>
+        <v>1242.992331264951</v>
       </c>
       <c r="P42" t="n">
-        <v>1817.075202091449</v>
+        <v>1424.590652701133</v>
       </c>
       <c r="Q42" t="n">
         <v>1918.25159622554</v>
@@ -7529,13 +7529,13 @@
         <v>1374.432432205545</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>284.6028665600907</v>
+        <v>585.5422959195495</v>
       </c>
       <c r="C43" t="n">
-        <v>284.6028665600907</v>
+        <v>414.448923481266</v>
       </c>
       <c r="D43" t="n">
-        <v>125.1082218830007</v>
+        <v>414.448923481266</v>
       </c>
       <c r="E43" t="n">
-        <v>125.1082218830007</v>
+        <v>414.448923481266</v>
       </c>
       <c r="F43" t="n">
-        <v>125.1082218830007</v>
+        <v>249.8177975918572</v>
       </c>
       <c r="G43" t="n">
-        <v>125.1082218830007</v>
+        <v>249.8177975918572</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1082218830007</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J43" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>337.1911823108422</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>704.2340952368604</v>
+        <v>501.7072137817916</v>
       </c>
       <c r="M43" t="n">
-        <v>1155.444313622741</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N43" t="n">
-        <v>1262.344238751202</v>
+        <v>1391.851658743718</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.931580268703</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.752091802768</v>
+        <v>1515.391227556271</v>
       </c>
       <c r="W43" t="n">
-        <v>747.6824273116426</v>
+        <v>1236.321563065146</v>
       </c>
       <c r="X43" t="n">
-        <v>509.338565171326</v>
+        <v>997.9777009248292</v>
       </c>
       <c r="Y43" t="n">
-        <v>284.6028665600907</v>
+        <v>773.2420023135938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1532.368531364314</v>
+        <v>339.2630018402598</v>
       </c>
       <c r="C44" t="n">
-        <v>1532.368531364314</v>
+        <v>339.2630018402598</v>
       </c>
       <c r="D44" t="n">
-        <v>1532.368531364314</v>
+        <v>339.2630018402598</v>
       </c>
       <c r="E44" t="n">
-        <v>1154.737524722578</v>
+        <v>339.2630018402598</v>
       </c>
       <c r="F44" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G44" t="n">
         <v>327.3287545781499</v>
@@ -7645,7 +7645,7 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746577</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
         <v>167.5334271492901</v>
@@ -7657,7 +7657,7 @@
         <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
@@ -7678,22 +7678,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U44" t="n">
-        <v>1942.589711028803</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V44" t="n">
-        <v>1942.589711028803</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W44" t="n">
-        <v>1942.589711028803</v>
+        <v>740.1996748921697</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.589711028803</v>
+        <v>740.1996748921697</v>
       </c>
       <c r="Y44" t="n">
-        <v>1942.589711028803</v>
+        <v>339.2630018402598</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090094</v>
+        <v>685.1682898090097</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579551</v>
+        <v>551.1732185579554</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773475</v>
+        <v>434.2760607773478</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696755</v>
+        <v>313.7832447696758</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521802</v>
+        <v>204.8233649521804</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692763</v>
+        <v>99.0905735269282</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475247</v>
+        <v>62.57863487475248</v>
       </c>
       <c r="J45" t="n">
         <v>371.8168719145381</v>
@@ -7736,7 +7736,7 @@
         <v>727.551448967487</v>
       </c>
       <c r="M45" t="n">
-        <v>982.799666726455</v>
+        <v>982.7996667264551</v>
       </c>
       <c r="N45" t="n">
         <v>1250.639046485604</v>
@@ -7745,10 +7745,10 @@
         <v>1486.660735239584</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.259056675767</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q45" t="n">
-        <v>1918.251596225539</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7766,13 +7766,13 @@
         <v>1374.432432205545</v>
       </c>
       <c r="W45" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941874</v>
       </c>
       <c r="X45" t="n">
-        <v>984.873282080766</v>
+        <v>984.8732820807663</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.471322444596</v>
+        <v>825.4713224445964</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.90316016604609</v>
+        <v>928.2001369876873</v>
       </c>
       <c r="C46" t="n">
-        <v>40.48643694606873</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="D46" t="n">
-        <v>40.48643694606873</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E46" t="n">
-        <v>40.48643694606873</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F46" t="n">
-        <v>40.48643694606873</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606873</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>290.7403161622241</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L46" t="n">
-        <v>704.2340952368602</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M46" t="n">
-        <v>1155.444313622741</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N46" t="n">
-        <v>1262.344238751201</v>
+        <v>1136.070278545365</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.931580268703</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W46" t="n">
-        <v>747.6824273116424</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="X46" t="n">
-        <v>509.3385651713258</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="Y46" t="n">
-        <v>284.6028665600905</v>
+        <v>1064.628825002098</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L2" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M2" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N2" t="n">
         <v>24.70558680915735</v>
@@ -7996,7 +7996,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q2" t="n">
         <v>48.7545716309821</v>
@@ -8066,7 +8066,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L5" t="n">
-        <v>35.16270217958865</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M5" t="n">
-        <v>26.16960234776165</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N5" t="n">
         <v>24.70558680915735</v>
@@ -8233,7 +8233,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P5" t="n">
-        <v>38.68062560122958</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q5" t="n">
         <v>48.7545716309821</v>
@@ -8303,7 +8303,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M6" t="n">
-        <v>5.742459823057359</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>19.13988639553256</v>
       </c>
       <c r="L9" t="n">
-        <v>6.785808794917678</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>3.697650023750555</v>
       </c>
       <c r="P9" t="n">
-        <v>10.87667177962184</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.69225648436267</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R9" t="n">
         <v>44.89460795773296</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>11.05489457645636</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>155.2919483512119</v>
+        <v>11.90522302331061</v>
       </c>
       <c r="L12" t="n">
-        <v>4.193651045197157</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>228.1365695788056</v>
       </c>
       <c r="R12" t="n">
-        <v>12.82588865527175</v>
+        <v>6.250309813165416</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>143.6022645071399</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.086813736935</v>
+        <v>224.5070621100255</v>
       </c>
       <c r="N13" t="n">
-        <v>175.8584291375003</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>215.5695997659851</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.806308117676767</v>
+        <v>11.05489457645636</v>
       </c>
       <c r="J15" t="n">
-        <v>118.3545503207284</v>
+        <v>240.0417926021162</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>147.5370055253088</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.998718741766197</v>
+        <v>6.250309813165416</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.075069820169418</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>78.38277060905853</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>240.4021519992531</v>
+        <v>224.5070621100255</v>
       </c>
       <c r="N16" t="n">
-        <v>238.6180310897106</v>
+        <v>222.6096206042658</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>183.3763762985612</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>1.715930858315438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.806308117676764</v>
+        <v>11.05489457645635</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>240.0417926021159</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>19.76185486155913</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.99871874176619</v>
+        <v>6.250309813165408</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>240.4021519992531</v>
+        <v>224.5070621100254</v>
       </c>
       <c r="N19" t="n">
-        <v>238.6180310897105</v>
+        <v>222.6096206042658</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>12.7248275471026</v>
+        <v>201.3238110664811</v>
       </c>
       <c r="Q19" t="n">
         <v>127.5494547533709</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.806308117676775</v>
+        <v>11.05489457645635</v>
       </c>
       <c r="J21" t="n">
-        <v>181.0319751161053</v>
+        <v>157.4338029435837</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>1.075069820169411</v>
       </c>
       <c r="K22" t="n">
-        <v>96.98196161472504</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>156.4476294303042</v>
       </c>
       <c r="M22" t="n">
-        <v>240.4021519992531</v>
+        <v>224.5070621100255</v>
       </c>
       <c r="N22" t="n">
-        <v>238.6180310897106</v>
+        <v>222.6096206042659</v>
       </c>
       <c r="O22" t="n">
-        <v>251.6561525905102</v>
+        <v>235.2925787730193</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.715930858315431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>81.42525534725911</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>403.8820839126366</v>
+        <v>239.1776382754176</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>23.93045033463838</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.93045033463852</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>258.9430967094549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>89.58839339659414</v>
+        <v>23.93045033463852</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>81.42525534725868</v>
       </c>
       <c r="K30" t="n">
-        <v>258.9430967094553</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>173.9813365250811</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>23.93045033463805</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.1907137812964</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>403.8820839126366</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463838</v>
       </c>
       <c r="L34" t="n">
-        <v>198.3751789009468</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>258.9430967094553</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8484968408682</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10761,10 +10761,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>5.167781085619708</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>360.9067319962717</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>258.9430967094554</v>
+        <v>144.1660656976617</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>59.89230224281459</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.3193388037196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>396.4490397881979</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>270.2305505923285</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>59.89230224281482</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.3193388037195</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>161.4437650879759</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631251</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>214.6448248717313</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6402558541756</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517527</v>
+        <v>136.9251270439315</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100387</v>
+        <v>123.1581180965385</v>
       </c>
       <c r="H11" t="n">
-        <v>132.0808280885452</v>
+        <v>291.5373080952682</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3786899365281</v>
+        <v>254.3628546400738</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23348,13 +23348,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>72.09163949153361</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.0706089338661</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991136</v>
+        <v>61.83436811483944</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>91.12911366133015</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>18.47482682130803</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.828249650886</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9543984734636</v>
+        <v>164.8656088629654</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5679993783892</v>
+        <v>141.7785790232325</v>
       </c>
       <c r="I13" t="n">
-        <v>96.4325800972463</v>
+        <v>93.76243435608239</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.39336863687453</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.93269702790687</v>
+        <v>234.109880711693</v>
       </c>
       <c r="U13" t="n">
-        <v>60.37960003122694</v>
+        <v>0.03633355374222447</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>146.5286080643451</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9853205117889</v>
+        <v>403.0530989784563</v>
       </c>
       <c r="H14" t="n">
-        <v>9.952916947955714</v>
+        <v>291.5373080952682</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.27064211186448</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.74394107424838</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.0333769484666</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>45.78328629556415</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>100.0277169742653</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>116.7419829708192</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>124.8636809187536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.0706089338661</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>61.83436811483944</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>90.45551319598854</v>
+        <v>91.12911366133015</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>94.70854182545446</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3190220096304</v>
+        <v>195.321407843628</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>94.4232667979831</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.2119986598169</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.8656088629654</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7785790232325</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.39336863687453</v>
       </c>
       <c r="S16" t="n">
-        <v>171.5849393488196</v>
+        <v>172.1147822340591</v>
       </c>
       <c r="T16" t="n">
-        <v>233.9799766135905</v>
+        <v>25.04215223623001</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9296560854714</v>
+        <v>279.93131443566</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>136.9251270439315</v>
       </c>
       <c r="G17" t="n">
-        <v>402.9853205117889</v>
+        <v>123.1581180965385</v>
       </c>
       <c r="H17" t="n">
-        <v>290.8431718735105</v>
+        <v>291.5373080952681</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.27064211186448</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.19943926506456</v>
+        <v>97.74394107424837</v>
       </c>
       <c r="T17" t="n">
-        <v>212.73667671063</v>
+        <v>213.0333769484666</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>45.78328629556415</v>
+        <v>74.27555371424705</v>
       </c>
       <c r="W17" t="n">
-        <v>79.36680503486315</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>107.3664857728078</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>101.7011591173401</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.0343442571015</v>
+        <v>105.0706089338661</v>
       </c>
       <c r="H18" t="n">
-        <v>61.48412768398178</v>
+        <v>61.83436811483944</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>90.45551319598854</v>
+        <v>91.12911366133015</v>
       </c>
       <c r="T18" t="n">
-        <v>154.1777782877338</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>151.1299473598518</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8656088629654</v>
       </c>
       <c r="H19" t="n">
-        <v>58.51616027272873</v>
+        <v>141.7785790232325</v>
       </c>
       <c r="I19" t="n">
-        <v>92.84813061879902</v>
+        <v>93.76243435608239</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>51.02633529811891</v>
+        <v>52.39336863687453</v>
       </c>
       <c r="S19" t="n">
-        <v>171.5849393488196</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9296560854714</v>
+        <v>279.93131443566</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>173.9806786545475</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.5630750465246</v>
+        <v>126.2239869859267</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>159.4918456190695</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>130.3018324463544</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>136.9251270439314</v>
       </c>
       <c r="G20" t="n">
-        <v>402.9853205117889</v>
+        <v>403.0530989784563</v>
       </c>
       <c r="H20" t="n">
-        <v>290.8431718735105</v>
+        <v>291.5373080952681</v>
       </c>
       <c r="I20" t="n">
-        <v>21.65761277566881</v>
+        <v>24.27064211186448</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>97.74394107424837</v>
       </c>
       <c r="T20" t="n">
-        <v>212.73667671063</v>
+        <v>213.0333769484666</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3574323627404</v>
+        <v>254.3628546400738</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>211.3925067242292</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>96.08107103141703</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>96.37141350007084</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>117.307280998738</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -24059,13 +24059,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>61.83436811483944</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>91.12911366133015</v>
       </c>
       <c r="T21" t="n">
-        <v>154.1777782877338</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>40.94160868595928</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8656088629654</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5082679425</v>
+        <v>141.7785790232325</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>93.76243435608239</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>52.39336863687453</v>
       </c>
       <c r="S22" t="n">
-        <v>98.95382248986971</v>
+        <v>172.1147822340591</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.1746987620652</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.03633355374211078</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.81459980961955</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>82.21096100811707</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.59446602740709</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>264.4365349479555</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>13.41259277542366</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>321.4276358898409</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>105.1348279675923</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.3250571286094</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -24697,7 +24697,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.391345493545117</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>100.8481646074882</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>21.16623198602781</v>
+        <v>51.38682064506983</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24928,13 +24928,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>378.7681666870949</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>323.8000457558202</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>7.333297336086417</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>74.22471534465861</v>
       </c>
       <c r="H34" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>71.77707490519566</v>
       </c>
       <c r="E35" t="n">
-        <v>314.1228570303331</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>74.22471534465861</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>22.42023698157939</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>143.2267761609102</v>
+        <v>343.3509545743279</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>64.08546121255637</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>225.9840732779025</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>102.4161716768056</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>99.60594005102008</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>15.39522346286364</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02447495925345322</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25873,13 +25873,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>36.34211675295438</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.0052031363605</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>50.75830819583692</v>
       </c>
       <c r="C46" t="n">
-        <v>113.5298827261231</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>305678.9656195728</v>
+        <v>353372.7950505142</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369703.980956141</v>
+        <v>353372.7950505144</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369703.9809561411</v>
+        <v>353372.7950505142</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369703.9809561411</v>
+        <v>353372.7950505145</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>531750.6608439425</v>
+        <v>531750.6608439424</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>531750.6608439424</v>
+        <v>531750.6608439425</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>531750.6608439424</v>
+        <v>531750.6608439425</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531750.6608439424</v>
+        <v>531750.6608439425</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47678.24413308802</v>
+        <v>47678.24413308801</v>
       </c>
       <c r="C2" t="n">
         <v>47678.24413308802</v>
       </c>
       <c r="D2" t="n">
-        <v>47855.66294377555</v>
+        <v>47855.66294377557</v>
       </c>
       <c r="E2" t="n">
-        <v>110887.0761508396</v>
+        <v>127881.8097582912</v>
       </c>
       <c r="F2" t="n">
-        <v>133701.0982757247</v>
+        <v>127881.8097582913</v>
       </c>
       <c r="G2" t="n">
-        <v>133701.0982757246</v>
+        <v>127881.8097582913</v>
       </c>
       <c r="H2" t="n">
-        <v>133701.0982757246</v>
+        <v>127881.8097582913</v>
       </c>
       <c r="I2" t="n">
-        <v>191416.3723940475</v>
+        <v>191416.3723940476</v>
       </c>
       <c r="J2" t="n">
-        <v>191416.3723940475</v>
+        <v>191416.3723940476</v>
       </c>
       <c r="K2" t="n">
         <v>191416.3723940476</v>
       </c>
       <c r="L2" t="n">
-        <v>191416.3723940475</v>
+        <v>191416.3723940476</v>
       </c>
       <c r="M2" t="n">
         <v>191416.3723940476</v>
       </c>
       <c r="N2" t="n">
-        <v>191416.3723940476</v>
+        <v>191416.3723940475</v>
       </c>
       <c r="O2" t="n">
         <v>191416.3723940476</v>
       </c>
       <c r="P2" t="n">
-        <v>191416.3723940475</v>
+        <v>191416.3723940476</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91626.024235875</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>9023.711902575867</v>
       </c>
       <c r="E3" t="n">
-        <v>258476.1452954646</v>
+        <v>316049.7274981613</v>
       </c>
       <c r="F3" t="n">
-        <v>75455.06617864274</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.660063110652819e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>180248.0138757927</v>
+        <v>198433.4522747319</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54714.37234877477</v>
+        <v>69750.94881569741</v>
       </c>
       <c r="N3" t="n">
-        <v>19838.92420858937</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>13740.70450753661</v>
       </c>
       <c r="D4" t="n">
-        <v>11851.05982312757</v>
+        <v>11851.05982312758</v>
       </c>
       <c r="E4" t="n">
-        <v>8225.097384584153</v>
+        <v>10353.80652975078</v>
       </c>
       <c r="F4" t="n">
-        <v>11082.71308230725</v>
+        <v>10353.80652975078</v>
       </c>
       <c r="G4" t="n">
-        <v>11082.71308230725</v>
+        <v>10353.80652975078</v>
       </c>
       <c r="H4" t="n">
-        <v>11082.71308230725</v>
+        <v>10353.80652975079</v>
       </c>
       <c r="I4" t="n">
+        <v>18387.66759391807</v>
+      </c>
+      <c r="J4" t="n">
         <v>18387.66759391808</v>
       </c>
-      <c r="J4" t="n">
-        <v>18387.66759391807</v>
-      </c>
       <c r="K4" t="n">
+        <v>18387.66759391806</v>
+      </c>
+      <c r="L4" t="n">
         <v>18387.66759391808</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18387.66759391807</v>
       </c>
       <c r="M4" t="n">
         <v>18387.66759391807</v>
       </c>
       <c r="N4" t="n">
-        <v>18387.66759391808</v>
+        <v>18387.66759391807</v>
       </c>
       <c r="O4" t="n">
-        <v>18387.66759391808</v>
+        <v>18387.66759391809</v>
       </c>
       <c r="P4" t="n">
         <v>18387.66759391808</v>
@@ -26478,31 +26478,31 @@
         <v>35930.17134953669</v>
       </c>
       <c r="E5" t="n">
-        <v>20886.4501516283</v>
+        <v>25628.41196791928</v>
       </c>
       <c r="F5" t="n">
-        <v>27252.14109395568</v>
+        <v>25628.41196791928</v>
       </c>
       <c r="G5" t="n">
-        <v>27252.14109395568</v>
+        <v>25628.41196791928</v>
       </c>
       <c r="H5" t="n">
-        <v>27252.14109395568</v>
+        <v>25628.41196791929</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194158</v>
       </c>
       <c r="J5" t="n">
+        <v>43385.32273194158</v>
+      </c>
+      <c r="K5" t="n">
         <v>43385.32273194157</v>
-      </c>
-      <c r="K5" t="n">
-        <v>43385.32273194158</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194158</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194158</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="N5" t="n">
         <v>43385.32273194158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93388.95756693798</v>
+        <v>-94766.84337024631</v>
       </c>
       <c r="C6" t="n">
-        <v>-1762.933331062995</v>
+        <v>-3140.819134371312</v>
       </c>
       <c r="D6" t="n">
-        <v>-8949.280131464577</v>
+        <v>-10326.23215155874</v>
       </c>
       <c r="E6" t="n">
-        <v>-176700.6166808374</v>
+        <v>-225105.8980112421</v>
       </c>
       <c r="F6" t="n">
-        <v>19911.17792081898</v>
+        <v>90943.82948691925</v>
       </c>
       <c r="G6" t="n">
-        <v>95366.24409946166</v>
+        <v>90943.82948691926</v>
       </c>
       <c r="H6" t="n">
-        <v>95366.24409946163</v>
+        <v>90943.82948691919</v>
       </c>
       <c r="I6" t="n">
-        <v>-50604.63180760489</v>
+        <v>-69411.4395453209</v>
       </c>
       <c r="J6" t="n">
-        <v>129643.3820681878</v>
+        <v>129022.012729411</v>
       </c>
       <c r="K6" t="n">
-        <v>129643.3820681879</v>
+        <v>129022.012729411</v>
       </c>
       <c r="L6" t="n">
-        <v>129643.3820681879</v>
+        <v>129022.012729411</v>
       </c>
       <c r="M6" t="n">
-        <v>74929.00971941314</v>
+        <v>59271.06391371355</v>
       </c>
       <c r="N6" t="n">
-        <v>109804.4578595986</v>
+        <v>129022.0127294109</v>
       </c>
       <c r="O6" t="n">
-        <v>129643.3820681879</v>
+        <v>129022.0127294109</v>
       </c>
       <c r="P6" t="n">
-        <v>129643.3820681878</v>
+        <v>129022.012729411</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>105.6225389695733</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377625</v>
+        <v>394.9906940503982</v>
       </c>
       <c r="F3" t="n">
-        <v>411.8505876339187</v>
+        <v>394.9906940503982</v>
       </c>
       <c r="G3" t="n">
-        <v>411.8505876339188</v>
+        <v>394.9906940503982</v>
       </c>
       <c r="H3" t="n">
-        <v>411.8505876339187</v>
+        <v>394.9906940503982</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26779,7 +26779,7 @@
         <v>578.6986538040985</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
     </row>
     <row r="4">
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="F4" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="G4" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="H4" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="J4" t="n">
+        <v>506.0804618258591</v>
+      </c>
+      <c r="K4" t="n">
         <v>506.0804618258589</v>
-      </c>
-      <c r="K4" t="n">
-        <v>506.0804618258591</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258591</v>
       </c>
       <c r="M4" t="n">
-        <v>506.0804618258591</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="N4" t="n">
         <v>506.0804618258591</v>
@@ -26968,10 +26968,10 @@
         <v>10.53662352854562</v>
       </c>
       <c r="E3" t="n">
-        <v>240.1302801681892</v>
+        <v>289.3681550808249</v>
       </c>
       <c r="F3" t="n">
-        <v>66.09776849615625</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>166.8480661701798</v>
+        <v>183.7079597537003</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="F4" t="n">
-        <v>80.99933534722334</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.356538555293863e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>205.5245690045391</v>
+        <v>226.1854809439412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819177</v>
       </c>
       <c r="N4" t="n">
-        <v>80.99933534722334</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="N4" t="n">
-        <v>80.99933534722334</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.356538555293863e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H2" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I2" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J2" t="n">
         <v>32.44340991221275</v>
@@ -31056,10 +31056,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L2" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M2" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N2" t="n">
         <v>68.20670394746197</v>
@@ -31068,7 +31068,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P2" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q2" t="n">
         <v>41.27923276816995</v>
@@ -31083,7 +31083,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H3" t="n">
         <v>1.975275337746631</v>
@@ -31138,7 +31138,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M3" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -31159,7 +31159,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U3" t="n">
         <v>0.01345555407184354</v>
@@ -31223,16 +31223,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O4" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P4" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R4" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S4" t="n">
         <v>2.98819180164672</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.382254936446342</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H5" t="n">
-        <v>3.914768367881101</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I5" t="n">
-        <v>14.73688343734761</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J5" t="n">
         <v>32.44340991221275</v>
@@ -31293,10 +31293,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L5" t="n">
-        <v>60.32269588325617</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M5" t="n">
-        <v>67.1206221092838</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N5" t="n">
         <v>68.20670394746197</v>
@@ -31305,7 +31305,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P5" t="n">
-        <v>54.96873767965458</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q5" t="n">
         <v>41.27923276816995</v>
@@ -31320,7 +31320,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03058039491570736</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2045244218920217</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H6" t="n">
         <v>1.975275337746631</v>
@@ -31375,7 +31375,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M6" t="n">
-        <v>51.82182391536006</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -31396,7 +31396,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8243769461349469</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U6" t="n">
         <v>0.01345555407184354</v>
@@ -31460,16 +31460,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O7" t="n">
-        <v>24.23599693896882</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P7" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.35797323159517</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R7" t="n">
-        <v>7.709753078218403</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S7" t="n">
         <v>2.98819180164672</v>
@@ -31600,7 +31600,7 @@
         <v>2.194158781235853</v>
       </c>
       <c r="I9" t="n">
-        <v>7.82204651802972</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J9" t="n">
         <v>21.46429350890168</v>
@@ -31624,13 +31624,13 @@
         <v>43.3829632231819</v>
       </c>
       <c r="Q9" t="n">
-        <v>29.00036202047605</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R9" t="n">
         <v>14.10559114767245</v>
       </c>
       <c r="S9" t="n">
-        <v>4.219919363548514</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T9" t="n">
         <v>0.9157274840852623</v>
@@ -31679,7 +31679,7 @@
         <v>1.693423657577749</v>
       </c>
       <c r="I10" t="n">
-        <v>5.727858342808991</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J10" t="n">
         <v>13.46600796010445</v>
@@ -31688,10 +31688,10 @@
         <v>22.12878767264174</v>
       </c>
       <c r="L10" t="n">
-        <v>28.31722954603937</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M10" t="n">
-        <v>29.85654818774347</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N10" t="n">
         <v>29.14662620450537</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.389961081960853</v>
+        <v>1.587902287639791</v>
       </c>
       <c r="H11" t="n">
-        <v>14.23493893063159</v>
+        <v>16.26210430329101</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229585</v>
+        <v>61.21760294423309</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9712093800751</v>
+        <v>134.7712217855678</v>
       </c>
       <c r="K11" t="n">
-        <v>176.808261979478</v>
+        <v>201.9871256213602</v>
       </c>
       <c r="L11" t="n">
-        <v>219.3462834415375</v>
+        <v>250.5828902567165</v>
       </c>
       <c r="M11" t="n">
-        <v>244.0650038328588</v>
+        <v>278.8217475645306</v>
       </c>
       <c r="N11" t="n">
-        <v>248.0142307569801</v>
+        <v>283.3333749392871</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482319</v>
+        <v>267.5436715665689</v>
       </c>
       <c r="P11" t="n">
-        <v>199.8781410373233</v>
+        <v>228.3423338404616</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.1001597896002</v>
+        <v>171.4755831643616</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472353</v>
+        <v>99.74606707595308</v>
       </c>
       <c r="S11" t="n">
-        <v>31.67373815518297</v>
+        <v>36.18432337959176</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283638</v>
+        <v>6.951042264143187</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1270321830111832</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510363</v>
+        <v>0.8496026249385924</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729748</v>
+        <v>8.205372719801669</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048525</v>
+        <v>29.25166932354364</v>
       </c>
       <c r="J12" t="n">
-        <v>70.2628441230806</v>
+        <v>80.26881642018517</v>
       </c>
       <c r="K12" t="n">
-        <v>120.0903919075</v>
+        <v>137.1921922910709</v>
       </c>
       <c r="L12" t="n">
-        <v>161.4763519944805</v>
+        <v>184.4718331034431</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4352864300805</v>
+        <v>215.269928257467</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551904</v>
+        <v>220.9674827027789</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223227</v>
+        <v>202.1420771712448</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0130777322633</v>
+        <v>162.2368380902475</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.93198158665511</v>
+        <v>108.4510298079508</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013366</v>
+        <v>52.74988929223999</v>
       </c>
       <c r="S12" t="n">
-        <v>13.81380367026815</v>
+        <v>15.78099612550411</v>
       </c>
       <c r="T12" t="n">
-        <v>2.99761170554343</v>
+        <v>3.424494790870904</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704189</v>
+        <v>0.05589490953543373</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484241</v>
+        <v>0.7122783007466196</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208721</v>
+        <v>6.332801619365404</v>
       </c>
       <c r="I13" t="n">
-        <v>18.7500053394708</v>
+        <v>21.42015108063471</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056358</v>
+        <v>50.358075862786</v>
       </c>
       <c r="K13" t="n">
-        <v>72.43804964886235</v>
+        <v>82.75378803219814</v>
       </c>
       <c r="L13" t="n">
-        <v>92.69576400293391</v>
+        <v>105.8963575491838</v>
       </c>
       <c r="M13" t="n">
-        <v>97.7346862359416</v>
+        <v>111.6528612706724</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501574</v>
+        <v>108.9980057860714</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711365</v>
+        <v>100.677300181895</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604574</v>
+        <v>86.14682284666385</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980213</v>
+        <v>59.64359480161013</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517005</v>
+        <v>32.02662250447982</v>
       </c>
       <c r="S13" t="n">
-        <v>10.86570744732935</v>
+        <v>12.41306820482972</v>
       </c>
       <c r="T13" t="n">
-        <v>2.663997131061448</v>
+        <v>3.04337092137192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03400847401355045</v>
+        <v>0.03885154367708839</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65568075430721</v>
+        <v>1.587902287639791</v>
       </c>
       <c r="H14" t="n">
-        <v>16.95624052504872</v>
+        <v>16.26210430329101</v>
       </c>
       <c r="I14" t="n">
-        <v>63.83063228042877</v>
+        <v>61.21760294423309</v>
       </c>
       <c r="J14" t="n">
-        <v>140.5238344208817</v>
+        <v>134.7712217855678</v>
       </c>
       <c r="K14" t="n">
-        <v>210.6088007507059</v>
+        <v>201.9871256213602</v>
       </c>
       <c r="L14" t="n">
-        <v>261.2788406353352</v>
+        <v>250.5828902567165</v>
       </c>
       <c r="M14" t="n">
-        <v>290.723053249746</v>
+        <v>278.8217475645306</v>
       </c>
       <c r="N14" t="n">
-        <v>295.4272561929214</v>
+        <v>283.3333749392871</v>
       </c>
       <c r="O14" t="n">
-        <v>278.9635806922791</v>
+        <v>267.5436715665689</v>
       </c>
       <c r="P14" t="n">
-        <v>238.0889620703198</v>
+        <v>228.3423338404616</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.7948950566928</v>
+        <v>171.4755831643616</v>
       </c>
       <c r="R14" t="n">
-        <v>104.0036561827504</v>
+        <v>99.74606707595308</v>
       </c>
       <c r="S14" t="n">
-        <v>37.72882518877558</v>
+        <v>36.18432337959176</v>
       </c>
       <c r="T14" t="n">
-        <v>7.247742501979815</v>
+        <v>6.951042264143187</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1324544603445768</v>
+        <v>0.1270321830111832</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.885867301703146</v>
+        <v>0.8496026249385924</v>
       </c>
       <c r="H15" t="n">
-        <v>8.555613150659333</v>
+        <v>8.205372719801669</v>
       </c>
       <c r="I15" t="n">
-        <v>30.50025578232323</v>
+        <v>29.25166932354364</v>
       </c>
       <c r="J15" t="n">
-        <v>83.69503309643628</v>
+        <v>80.26881642018517</v>
       </c>
       <c r="K15" t="n">
-        <v>143.0481423105471</v>
+        <v>137.1921922910709</v>
       </c>
       <c r="L15" t="n">
-        <v>192.3458805737467</v>
+        <v>184.4718331034431</v>
       </c>
       <c r="M15" t="n">
-        <v>224.4585702604857</v>
+        <v>215.269928257467</v>
       </c>
       <c r="N15" t="n">
-        <v>230.3993207179599</v>
+        <v>220.9674827027789</v>
       </c>
       <c r="O15" t="n">
-        <v>210.7703662960112</v>
+        <v>202.1420771712448</v>
       </c>
       <c r="P15" t="n">
-        <v>169.1618007962788</v>
+        <v>162.2368380902475</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.0801839858262</v>
+        <v>108.4510298079508</v>
       </c>
       <c r="R15" t="n">
-        <v>55.00148036363921</v>
+        <v>52.74988929223999</v>
       </c>
       <c r="S15" t="n">
-        <v>16.4545965908457</v>
+        <v>15.78099612550411</v>
       </c>
       <c r="T15" t="n">
-        <v>3.57066688712803</v>
+        <v>3.424494790870904</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05828074353310173</v>
+        <v>0.05589490953543373</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7426813875365746</v>
+        <v>0.7122783007466196</v>
       </c>
       <c r="H16" t="n">
-        <v>6.603112700097914</v>
+        <v>6.332801619365404</v>
       </c>
       <c r="I16" t="n">
-        <v>22.33445481791809</v>
+        <v>21.42015108063471</v>
       </c>
       <c r="J16" t="n">
-        <v>52.50757409883582</v>
+        <v>50.358075862786</v>
       </c>
       <c r="K16" t="n">
-        <v>86.28607393379475</v>
+        <v>82.75378803219814</v>
       </c>
       <c r="L16" t="n">
-        <v>110.4164673797559</v>
+        <v>105.8963575491838</v>
       </c>
       <c r="M16" t="n">
-        <v>116.4186833208469</v>
+        <v>111.6528612706724</v>
       </c>
       <c r="N16" t="n">
-        <v>113.6505072400288</v>
+        <v>108.9980057860714</v>
       </c>
       <c r="O16" t="n">
-        <v>104.9746383038061</v>
+        <v>100.677300181895</v>
       </c>
       <c r="P16" t="n">
-        <v>89.82393799805988</v>
+        <v>86.14682284666385</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.18943873272173</v>
+        <v>59.64359480161013</v>
       </c>
       <c r="R16" t="n">
-        <v>33.39365584323543</v>
+        <v>32.02662250447982</v>
       </c>
       <c r="S16" t="n">
-        <v>12.94291109006921</v>
+        <v>12.41306820482972</v>
       </c>
       <c r="T16" t="n">
-        <v>3.173275019474455</v>
+        <v>3.04337092137192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04050989386563139</v>
+        <v>0.03885154367708839</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.65568075430721</v>
+        <v>1.587902287639791</v>
       </c>
       <c r="H17" t="n">
-        <v>16.95624052504872</v>
+        <v>16.26210430329101</v>
       </c>
       <c r="I17" t="n">
-        <v>63.83063228042877</v>
+        <v>61.21760294423309</v>
       </c>
       <c r="J17" t="n">
-        <v>140.5238344208817</v>
+        <v>134.7712217855678</v>
       </c>
       <c r="K17" t="n">
-        <v>210.6088007507059</v>
+        <v>201.9871256213602</v>
       </c>
       <c r="L17" t="n">
-        <v>261.2788406353353</v>
+        <v>250.5828902567165</v>
       </c>
       <c r="M17" t="n">
-        <v>290.7230532497461</v>
+        <v>278.8217475645306</v>
       </c>
       <c r="N17" t="n">
-        <v>295.4272561929215</v>
+        <v>283.3333749392872</v>
       </c>
       <c r="O17" t="n">
-        <v>278.9635806922792</v>
+        <v>267.543671566569</v>
       </c>
       <c r="P17" t="n">
-        <v>238.0889620703199</v>
+        <v>228.3423338404616</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.7948950566928</v>
+        <v>171.4755831643616</v>
       </c>
       <c r="R17" t="n">
-        <v>104.0036561827504</v>
+        <v>99.74606707595309</v>
       </c>
       <c r="S17" t="n">
-        <v>37.72882518877559</v>
+        <v>36.18432337959177</v>
       </c>
       <c r="T17" t="n">
-        <v>7.247742501979816</v>
+        <v>6.951042264143187</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1324544603445768</v>
+        <v>0.1270321830111832</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8858673017031461</v>
+        <v>0.8496026249385925</v>
       </c>
       <c r="H18" t="n">
-        <v>8.555613150659333</v>
+        <v>8.205372719801671</v>
       </c>
       <c r="I18" t="n">
-        <v>30.50025578232324</v>
+        <v>29.25166932354365</v>
       </c>
       <c r="J18" t="n">
-        <v>83.69503309643629</v>
+        <v>80.26881642018519</v>
       </c>
       <c r="K18" t="n">
-        <v>143.0481423105471</v>
+        <v>137.1921922910709</v>
       </c>
       <c r="L18" t="n">
-        <v>192.3458805737467</v>
+        <v>184.4718331034431</v>
       </c>
       <c r="M18" t="n">
-        <v>224.4585702604857</v>
+        <v>215.269928257467</v>
       </c>
       <c r="N18" t="n">
-        <v>230.3993207179599</v>
+        <v>220.9674827027789</v>
       </c>
       <c r="O18" t="n">
-        <v>210.7703662960112</v>
+        <v>202.1420771712448</v>
       </c>
       <c r="P18" t="n">
-        <v>169.1618007962788</v>
+        <v>162.2368380902475</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.0801839858262</v>
+        <v>108.4510298079509</v>
       </c>
       <c r="R18" t="n">
-        <v>55.00148036363922</v>
+        <v>52.74988929224</v>
       </c>
       <c r="S18" t="n">
-        <v>16.45459659084571</v>
+        <v>15.78099612550411</v>
       </c>
       <c r="T18" t="n">
-        <v>3.570666887128031</v>
+        <v>3.424494790870904</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05828074353310174</v>
+        <v>0.05589490953543374</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7426813875365748</v>
+        <v>0.7122783007466197</v>
       </c>
       <c r="H19" t="n">
-        <v>6.603112700097915</v>
+        <v>6.332801619365405</v>
       </c>
       <c r="I19" t="n">
-        <v>22.33445481791809</v>
+        <v>21.42015108063472</v>
       </c>
       <c r="J19" t="n">
-        <v>52.50757409883583</v>
+        <v>50.35807586278601</v>
       </c>
       <c r="K19" t="n">
-        <v>86.28607393379477</v>
+        <v>82.75378803219816</v>
       </c>
       <c r="L19" t="n">
-        <v>110.4164673797559</v>
+        <v>105.8963575491838</v>
       </c>
       <c r="M19" t="n">
-        <v>116.4186833208469</v>
+        <v>111.6528612706724</v>
       </c>
       <c r="N19" t="n">
-        <v>113.6505072400288</v>
+        <v>108.9980057860714</v>
       </c>
       <c r="O19" t="n">
-        <v>104.9746383038061</v>
+        <v>100.677300181895</v>
       </c>
       <c r="P19" t="n">
-        <v>89.82393799805988</v>
+        <v>86.14682284666387</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.18943873272173</v>
+        <v>59.64359480161013</v>
       </c>
       <c r="R19" t="n">
-        <v>33.39365584323544</v>
+        <v>32.02662250447982</v>
       </c>
       <c r="S19" t="n">
-        <v>12.94291109006921</v>
+        <v>12.41306820482972</v>
       </c>
       <c r="T19" t="n">
-        <v>3.173275019474455</v>
+        <v>3.04337092137192</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0405098938656314</v>
+        <v>0.03885154367708839</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.655680754307209</v>
+        <v>1.587902287639791</v>
       </c>
       <c r="H20" t="n">
-        <v>16.95624052504871</v>
+        <v>16.26210430329101</v>
       </c>
       <c r="I20" t="n">
-        <v>63.83063228042876</v>
+        <v>61.21760294423309</v>
       </c>
       <c r="J20" t="n">
-        <v>140.5238344208817</v>
+        <v>134.7712217855678</v>
       </c>
       <c r="K20" t="n">
-        <v>210.6088007507059</v>
+        <v>201.9871256213602</v>
       </c>
       <c r="L20" t="n">
-        <v>261.2788406353352</v>
+        <v>250.5828902567165</v>
       </c>
       <c r="M20" t="n">
-        <v>290.723053249746</v>
+        <v>278.8217475645306</v>
       </c>
       <c r="N20" t="n">
-        <v>295.4272561929214</v>
+        <v>283.3333749392872</v>
       </c>
       <c r="O20" t="n">
-        <v>278.963580692279</v>
+        <v>267.543671566569</v>
       </c>
       <c r="P20" t="n">
-        <v>238.0889620703198</v>
+        <v>228.3423338404616</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.7948950566928</v>
+        <v>171.4755831643616</v>
       </c>
       <c r="R20" t="n">
-        <v>104.0036561827503</v>
+        <v>99.74606707595309</v>
       </c>
       <c r="S20" t="n">
-        <v>37.72882518877557</v>
+        <v>36.18432337959177</v>
       </c>
       <c r="T20" t="n">
-        <v>7.247742501979813</v>
+        <v>6.951042264143187</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1324544603445767</v>
+        <v>0.1270321830111832</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8858673017031459</v>
+        <v>0.8496026249385925</v>
       </c>
       <c r="H21" t="n">
-        <v>8.555613150659331</v>
+        <v>8.205372719801671</v>
       </c>
       <c r="I21" t="n">
-        <v>30.50025578232323</v>
+        <v>29.25166932354365</v>
       </c>
       <c r="J21" t="n">
-        <v>83.69503309643626</v>
+        <v>80.26881642018519</v>
       </c>
       <c r="K21" t="n">
-        <v>143.048142310547</v>
+        <v>137.1921922910709</v>
       </c>
       <c r="L21" t="n">
-        <v>192.3458805737467</v>
+        <v>184.4718331034431</v>
       </c>
       <c r="M21" t="n">
-        <v>224.4585702604857</v>
+        <v>215.269928257467</v>
       </c>
       <c r="N21" t="n">
-        <v>230.3993207179599</v>
+        <v>220.9674827027789</v>
       </c>
       <c r="O21" t="n">
-        <v>210.7703662960112</v>
+        <v>202.1420771712448</v>
       </c>
       <c r="P21" t="n">
-        <v>169.1618007962788</v>
+        <v>162.2368380902475</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.0801839858261</v>
+        <v>108.4510298079509</v>
       </c>
       <c r="R21" t="n">
-        <v>55.0014803636392</v>
+        <v>52.74988929224</v>
       </c>
       <c r="S21" t="n">
-        <v>16.4545965908457</v>
+        <v>15.78099612550411</v>
       </c>
       <c r="T21" t="n">
-        <v>3.570666887128029</v>
+        <v>3.424494790870904</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05828074353310173</v>
+        <v>0.05589490953543374</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7426813875365745</v>
+        <v>0.7122783007466197</v>
       </c>
       <c r="H22" t="n">
-        <v>6.603112700097913</v>
+        <v>6.332801619365405</v>
       </c>
       <c r="I22" t="n">
-        <v>22.33445481791809</v>
+        <v>21.42015108063472</v>
       </c>
       <c r="J22" t="n">
-        <v>52.50757409883582</v>
+        <v>50.35807586278601</v>
       </c>
       <c r="K22" t="n">
-        <v>86.28607393379474</v>
+        <v>82.75378803219816</v>
       </c>
       <c r="L22" t="n">
-        <v>110.4164673797558</v>
+        <v>105.8963575491838</v>
       </c>
       <c r="M22" t="n">
-        <v>116.4186833208469</v>
+        <v>111.6528612706724</v>
       </c>
       <c r="N22" t="n">
-        <v>113.6505072400288</v>
+        <v>108.9980057860714</v>
       </c>
       <c r="O22" t="n">
-        <v>104.9746383038061</v>
+        <v>100.677300181895</v>
       </c>
       <c r="P22" t="n">
-        <v>89.82393799805986</v>
+        <v>86.14682284666387</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.18943873272172</v>
+        <v>59.64359480161013</v>
       </c>
       <c r="R22" t="n">
-        <v>33.39365584323543</v>
+        <v>32.02662250447982</v>
       </c>
       <c r="S22" t="n">
-        <v>12.94291109006921</v>
+        <v>12.41306820482972</v>
       </c>
       <c r="T22" t="n">
-        <v>3.173275019474454</v>
+        <v>3.04337092137192</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04050989386563139</v>
+        <v>0.03885154367708839</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932691</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846457</v>
@@ -34374,16 +34374,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P44" t="n">
         <v>334.5430745340568</v>
@@ -34395,7 +34395,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M45" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O45" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q45" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I46" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K46" t="n">
         <v>121.2421114035472</v>
@@ -34535,10 +34535,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O46" t="n">
         <v>147.5017486778054</v>
@@ -34547,19 +34547,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676714</v>
+        <v>61.44763045225986</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626091</v>
+        <v>112.8507359481431</v>
       </c>
       <c r="L11" t="n">
-        <v>123.8608853786927</v>
+        <v>155.0974921938716</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758134</v>
+        <v>185.5315231074852</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003608</v>
+        <v>190.4210841826678</v>
       </c>
       <c r="O11" t="n">
-        <v>141.0030296224488</v>
+        <v>174.3538959407858</v>
       </c>
       <c r="P11" t="n">
-        <v>106.2287777564391</v>
+        <v>134.6929705595774</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044817</v>
+        <v>81.44177876520951</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.43392426122956</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.064174064523023</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.89360532308059</v>
+        <v>28.89957762018516</v>
       </c>
       <c r="K12" t="n">
-        <v>219.5565574740966</v>
+        <v>93.27163252976607</v>
       </c>
       <c r="L12" t="n">
-        <v>109.5554792288286</v>
+        <v>128.357309292594</v>
       </c>
       <c r="M12" t="n">
-        <v>130.8710026916631</v>
+        <v>157.7056445190495</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614404</v>
+        <v>167.7740893090289</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223227</v>
+        <v>144.3905981712448</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945952</v>
+        <v>107.9772030874438</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181639</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.30544777956411</v>
+        <v>64.58287324178653</v>
       </c>
       <c r="K13" t="n">
-        <v>163.7899445969354</v>
+        <v>238.8672503778931</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903241</v>
+        <v>51.2680636552823</v>
       </c>
       <c r="M13" t="n">
-        <v>219.5565574740966</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="N13" t="n">
-        <v>219.5565574740966</v>
+        <v>57.28536027765198</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411732</v>
+        <v>44.60240210889864</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614096</v>
+        <v>245.9365809727441</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.3986047832474</v>
+        <v>125.8335238950554</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>67.20024308757374</v>
+        <v>61.44763045225986</v>
       </c>
       <c r="K14" t="n">
-        <v>121.4724110774888</v>
+        <v>112.8507359481431</v>
       </c>
       <c r="L14" t="n">
-        <v>165.7934425724904</v>
+        <v>155.0974921938716</v>
       </c>
       <c r="M14" t="n">
-        <v>197.4328287927006</v>
+        <v>185.5315231074852</v>
       </c>
       <c r="N14" t="n">
-        <v>202.5149654363021</v>
+        <v>190.4210841826678</v>
       </c>
       <c r="O14" t="n">
-        <v>185.773805066496</v>
+        <v>174.3538959407858</v>
       </c>
       <c r="P14" t="n">
-        <v>144.4395987894357</v>
+        <v>134.6929705595774</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.76109065754076</v>
+        <v>81.44177876520951</v>
       </c>
       <c r="R14" t="n">
-        <v>16.69151336802685</v>
+        <v>12.43392426122956</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>150.6803446171647</v>
+        <v>268.9413702223014</v>
       </c>
       <c r="K15" t="n">
-        <v>87.22235952593167</v>
+        <v>81.36640950645545</v>
       </c>
       <c r="L15" t="n">
-        <v>136.2313567628976</v>
+        <v>128.357309292594</v>
       </c>
       <c r="M15" t="n">
-        <v>166.8942865220683</v>
+        <v>157.7056445190495</v>
       </c>
       <c r="N15" t="n">
-        <v>177.2059273242099</v>
+        <v>167.7740893090289</v>
       </c>
       <c r="O15" t="n">
-        <v>300.55589282132</v>
+        <v>144.3905981712448</v>
       </c>
       <c r="P15" t="n">
-        <v>114.9021657934751</v>
+        <v>107.9772030874438</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.38756548098743</v>
+        <v>51.75841130311213</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.074428415880405</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>242.3995362794897</v>
+        <v>238.8672503778931</v>
       </c>
       <c r="L16" t="n">
-        <v>134.1709440949129</v>
+        <v>51.2680636552823</v>
       </c>
       <c r="M16" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="N16" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="O16" t="n">
-        <v>48.89974023080975</v>
+        <v>44.60240210889864</v>
       </c>
       <c r="P16" t="n">
-        <v>34.04409635815509</v>
+        <v>213.7433575053203</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.379367826167</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.20024308757374</v>
+        <v>61.44763045225986</v>
       </c>
       <c r="K17" t="n">
-        <v>121.4724110774888</v>
+        <v>112.8507359481431</v>
       </c>
       <c r="L17" t="n">
-        <v>165.7934425724904</v>
+        <v>155.0974921938717</v>
       </c>
       <c r="M17" t="n">
-        <v>197.4328287927007</v>
+        <v>185.5315231074852</v>
       </c>
       <c r="N17" t="n">
-        <v>202.5149654363022</v>
+        <v>190.4210841826679</v>
       </c>
       <c r="O17" t="n">
-        <v>185.773805066496</v>
+        <v>174.3538959407859</v>
       </c>
       <c r="P17" t="n">
-        <v>144.4395987894357</v>
+        <v>134.6929705595775</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.76109065754079</v>
+        <v>81.44177876520953</v>
       </c>
       <c r="R17" t="n">
-        <v>16.69151336802686</v>
+        <v>12.43392426122958</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>278.4554952809143</v>
+        <v>268.9413702223011</v>
       </c>
       <c r="K18" t="n">
-        <v>87.22235952593167</v>
+        <v>81.36640950645548</v>
       </c>
       <c r="L18" t="n">
-        <v>136.2313567628977</v>
+        <v>128.357309292594</v>
       </c>
       <c r="M18" t="n">
-        <v>186.6561413836274</v>
+        <v>157.7056445190496</v>
       </c>
       <c r="N18" t="n">
-        <v>177.2059273242099</v>
+        <v>167.7740893090289</v>
       </c>
       <c r="O18" t="n">
-        <v>153.0188872960113</v>
+        <v>144.3905981712448</v>
       </c>
       <c r="P18" t="n">
-        <v>114.9021657934751</v>
+        <v>107.9772030874438</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.38756548098745</v>
+        <v>51.75841130311215</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73237147783635</v>
+        <v>64.58287324178653</v>
       </c>
       <c r="K19" t="n">
-        <v>242.3995362794897</v>
+        <v>30.50341847313133</v>
       </c>
       <c r="L19" t="n">
-        <v>55.78817348585437</v>
+        <v>51.26806365528231</v>
       </c>
       <c r="M19" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="N19" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819178</v>
       </c>
       <c r="O19" t="n">
-        <v>48.89974023080976</v>
+        <v>44.60240210889865</v>
       </c>
       <c r="P19" t="n">
-        <v>46.76892390525769</v>
+        <v>231.6907922732402</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.379367826167</v>
+        <v>125.8335238950554</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.20024308757371</v>
+        <v>61.44763045225986</v>
       </c>
       <c r="K20" t="n">
-        <v>121.4724110774888</v>
+        <v>112.8507359481431</v>
       </c>
       <c r="L20" t="n">
-        <v>165.7934425724904</v>
+        <v>155.0974921938717</v>
       </c>
       <c r="M20" t="n">
-        <v>197.4328287927005</v>
+        <v>185.5315231074852</v>
       </c>
       <c r="N20" t="n">
-        <v>202.5149654363021</v>
+        <v>190.4210841826679</v>
       </c>
       <c r="O20" t="n">
-        <v>185.7738050664959</v>
+        <v>174.3538959407859</v>
       </c>
       <c r="P20" t="n">
-        <v>144.4395987894356</v>
+        <v>134.6929705595775</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.76109065754076</v>
+        <v>81.44177876520953</v>
       </c>
       <c r="R20" t="n">
-        <v>16.69151336802683</v>
+        <v>12.43392426122958</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>213.3577694125416</v>
+        <v>186.3333805637689</v>
       </c>
       <c r="K21" t="n">
-        <v>87.22235952593164</v>
+        <v>81.36640950645548</v>
       </c>
       <c r="L21" t="n">
-        <v>136.2313567628976</v>
+        <v>128.357309292594</v>
       </c>
       <c r="M21" t="n">
-        <v>166.8942865220682</v>
+        <v>157.7056445190496</v>
       </c>
       <c r="N21" t="n">
-        <v>177.2059273242099</v>
+        <v>167.7740893090289</v>
       </c>
       <c r="O21" t="n">
-        <v>153.0188872960112</v>
+        <v>144.3905981712448</v>
       </c>
       <c r="P21" t="n">
-        <v>114.9021657934751</v>
+        <v>107.9772030874438</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.38756548098742</v>
+        <v>51.75841130311215</v>
       </c>
       <c r="R21" t="n">
-        <v>84.85958072993202</v>
+        <v>82.60798965853283</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.73237147783635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>131.017665989453</v>
+        <v>30.50341847313133</v>
       </c>
       <c r="L22" t="n">
-        <v>55.78817348585434</v>
+        <v>207.7156930855865</v>
       </c>
       <c r="M22" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="N22" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="O22" t="n">
-        <v>300.55589282132</v>
+        <v>279.8949808819179</v>
       </c>
       <c r="P22" t="n">
-        <v>34.04409635815508</v>
+        <v>30.36698120675909</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8299130727961526</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L24" t="n">
-        <v>295.579381126711</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M24" t="n">
         <v>257.8264825848162</v>
@@ -36457,7 +36457,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>506.0804618258591</v>
+        <v>341.3760161886401</v>
       </c>
       <c r="R24" t="n">
         <v>18.28336828375328</v>
@@ -36518,7 +36518,7 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K25" t="n">
-        <v>68.99174184448033</v>
+        <v>92.92219217911871</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
@@ -36536,7 +36536,7 @@
         <v>70.43338606845134</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.95442139913182</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
         <v>312.361855595743</v>
@@ -36691,13 +36691,13 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P27" t="n">
-        <v>442.3757446247912</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K28" t="n">
         <v>68.99174184448033</v>
@@ -36770,7 +36770,7 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
-        <v>160.0217794650455</v>
+        <v>94.36383640308986</v>
       </c>
       <c r="Q28" t="n">
         <v>26.02397106449331</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>147.6574099585237</v>
       </c>
       <c r="K30" t="n">
-        <v>404.1168265390427</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794519</v>
@@ -36931,7 +36931,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132225</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R30" t="n">
         <v>18.28336828375328</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K31" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N31" t="n">
-        <v>281.9610588770616</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>333.9661976574595</v>
+        <v>94.36383640308939</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J33" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K33" t="n">
         <v>145.1737298295874</v>
@@ -37156,7 +37156,7 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M33" t="n">
-        <v>359.0171963661127</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
         <v>270.5448280395447</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q33" t="n">
-        <v>506.0804618258591</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911871</v>
       </c>
       <c r="L34" t="n">
-        <v>298.8950454056064</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
         <v>455.7678973594753</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
-        <v>404.1168265390427</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
         <v>214.1541257794519</v>
@@ -37405,10 +37405,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132225</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R36" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K37" t="n">
-        <v>177.8402386853486</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M37" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
         <v>443.3679056323699</v>
@@ -37481,10 +37481,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>75.60116715407105</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J39" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K39" t="n">
-        <v>145.1737298295874</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="L39" t="n">
         <v>214.1541257794519</v>
@@ -37642,7 +37642,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>361.1414746226779</v>
+        <v>246.3644436108842</v>
       </c>
       <c r="R39" t="n">
         <v>18.28336828375328</v>
@@ -37706,16 +37706,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273627</v>
       </c>
       <c r="N40" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O40" t="n">
-        <v>151.3191528476236</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
         <v>333.9661976574595</v>
@@ -37858,10 +37858,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K42" t="n">
-        <v>295.493068633307</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L42" t="n">
         <v>214.1541257794519</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132225</v>
+        <v>498.6474177014203</v>
       </c>
       <c r="R42" t="n">
         <v>107.1416677554515</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K43" t="n">
         <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
-        <v>370.7504170969881</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N43" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510116</v>
+        <v>151.3191528476239</v>
       </c>
       <c r="P43" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229331</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>22.3153514431149</v>
       </c>
       <c r="J45" t="n">
         <v>312.361855595743</v>
@@ -38104,22 +38104,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>333.7519867190558</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.517716716942</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554515</v>
+        <v>107.1416677554516</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K46" t="n">
-        <v>230.4355069324562</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273626</v>
       </c>
       <c r="N46" t="n">
         <v>107.9797223519805</v>
@@ -38195,7 +38195,7 @@
         <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
